--- a/sepsis data.xlsx
+++ b/sepsis data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3465,7 +3465,7 @@
         <v>23141610</v>
       </c>
       <c r="C51" t="n">
-        <v>38.1428571428572</v>
+        <v>38.57143</v>
       </c>
       <c r="D51" t="n">
         <v>2.88</v>
@@ -3512,246 +3512,6 @@
       <c r="P51" t="inlineStr">
         <is>
           <t>NORMAL WARD NOW, POTENTIAL ICU LATER</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>B/O RAM</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>23141623</v>
-      </c>
-      <c r="C52" t="n">
-        <v>40.42857143</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>54</v>
-      </c>
-      <c r="G52" t="n">
-        <v>136</v>
-      </c>
-      <c r="H52" t="n">
-        <v>96</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22740</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>PROM</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EMERGENCY LSCS MSL AND FOETAL DISTRESS</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>7</v>
-      </c>
-      <c r="O52" t="n">
-        <v>9</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>ICU WARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>B/O DEVI</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>458597599</v>
-      </c>
-      <c r="C53" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>49</v>
-      </c>
-      <c r="G53" t="n">
-        <v>160</v>
-      </c>
-      <c r="H53" t="n">
-        <v>98</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18520</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>PLACENTA PREVIA</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>LSCS</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>7</v>
-      </c>
-      <c r="O53" t="n">
-        <v>8</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>ICU WARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>B/O DEVI</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>214253567</v>
-      </c>
-      <c r="C54" t="n">
-        <v>39.89</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>49</v>
-      </c>
-      <c r="G54" t="n">
-        <v>160</v>
-      </c>
-      <c r="H54" t="n">
-        <v>96</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18520</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>PLACENTA PREVIA</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>LSCS</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>ICU WARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>B/O DEVI</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>25375889</v>
-      </c>
-      <c r="C55" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>FEMALE</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>50</v>
-      </c>
-      <c r="G55" t="n">
-        <v>123</v>
-      </c>
-      <c r="H55" t="n">
-        <v>98</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18520</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>PLACENTA PREVIA</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>LSCS</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>6</v>
-      </c>
-      <c r="O55" t="n">
-        <v>8</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>ICU WARD</t>
         </is>
       </c>
     </row>

--- a/sepsis data.xlsx
+++ b/sepsis data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +3515,126 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>45345346536</v>
+      </c>
+      <c r="C52" t="n">
+        <v>38.768</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>44</v>
+      </c>
+      <c r="G52" t="n">
+        <v>140</v>
+      </c>
+      <c r="H52" t="n">
+        <v>96</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18530</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>7</v>
+      </c>
+      <c r="O52" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kjdfhkd</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>89493748</v>
+      </c>
+      <c r="C53" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>48</v>
+      </c>
+      <c r="G53" t="n">
+        <v>146</v>
+      </c>
+      <c r="H53" t="n">
+        <v>96</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19990</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMERGENCY LSCS </t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>ICU WARD</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sepsis data.xlsx
+++ b/sepsis data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +3515,1926 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vnc</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>456546</v>
+      </c>
+      <c r="C52" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>46</v>
+      </c>
+      <c r="G52" t="n">
+        <v>146</v>
+      </c>
+      <c r="H52" t="n">
+        <v>97</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10200</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>9</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>ICU WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dayavathi</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22041113</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>46</v>
+      </c>
+      <c r="G53" t="n">
+        <v>146</v>
+      </c>
+      <c r="H53" t="n">
+        <v>97</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10200</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>9</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B/O AYISHATH AREEFA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>22042481</v>
+      </c>
+      <c r="C54" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>40</v>
+      </c>
+      <c r="G54" t="n">
+        <v>140</v>
+      </c>
+      <c r="H54" t="n">
+        <v>98</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13600</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B/O AYISHATHUL</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>22043192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>52</v>
+      </c>
+      <c r="G55" t="n">
+        <v>140</v>
+      </c>
+      <c r="H55" t="n">
+        <v>98</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22800</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UTI </t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B/O ZOHARA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>22043311</v>
+      </c>
+      <c r="C56" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>46</v>
+      </c>
+      <c r="G56" t="n">
+        <v>146</v>
+      </c>
+      <c r="H56" t="n">
+        <v>97</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19800</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>LSCS, NON PROGRESSION OF LABOUR</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B/O RAMYA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>22043771</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+      <c r="G57" t="n">
+        <v>138</v>
+      </c>
+      <c r="H57" t="n">
+        <v>99</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B/O SHAINAZ</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>22045418</v>
+      </c>
+      <c r="C58" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>54</v>
+      </c>
+      <c r="G58" t="n">
+        <v>160</v>
+      </c>
+      <c r="H58" t="n">
+        <v>94</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B/O JAYANTI</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>22046043</v>
+      </c>
+      <c r="C59" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>48</v>
+      </c>
+      <c r="G59" t="n">
+        <v>142</v>
+      </c>
+      <c r="H59" t="n">
+        <v>98</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18900</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>9</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B/O ZUBAIDA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>22047493</v>
+      </c>
+      <c r="C60" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>54</v>
+      </c>
+      <c r="G60" t="n">
+        <v>142</v>
+      </c>
+      <c r="H60" t="n">
+        <v>98</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20400</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B/O MARIYAMMA</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>23023058</v>
+      </c>
+      <c r="C61" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>48</v>
+      </c>
+      <c r="G61" t="n">
+        <v>152</v>
+      </c>
+      <c r="H61" t="n">
+        <v>96</v>
+      </c>
+      <c r="I61" t="n">
+        <v>18590</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B/O NAMITA </t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>23024726</v>
+      </c>
+      <c r="C62" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>44</v>
+      </c>
+      <c r="G62" t="n">
+        <v>144</v>
+      </c>
+      <c r="H62" t="n">
+        <v>95</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10040</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K62" t="n">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>MATERAL FEVER AND UTI 2 DAYS PRIOR TO DELIVERY</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>EMERGENCY LSCS NON PROGRESSION OF LABOUR</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>9</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B/O SAJIDA</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>23024773</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>48</v>
+      </c>
+      <c r="G63" t="n">
+        <v>140</v>
+      </c>
+      <c r="H63" t="n">
+        <v>96</v>
+      </c>
+      <c r="I63" t="n">
+        <v>29390</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>7</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B/O SUMALATHA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>23025545</v>
+      </c>
+      <c r="C64" t="n">
+        <v>39</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>48</v>
+      </c>
+      <c r="G64" t="n">
+        <v>152</v>
+      </c>
+      <c r="H64" t="n">
+        <v>96</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10150</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NVD MSL</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>9</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B/O BHAVYA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>23027277</v>
+      </c>
+      <c r="C65" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>69</v>
+      </c>
+      <c r="G65" t="n">
+        <v>166</v>
+      </c>
+      <c r="H65" t="n">
+        <v>96</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9710</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>FEVER AND INFECTION</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>9</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B/O MISRIYA</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>23028258</v>
+      </c>
+      <c r="C66" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>48</v>
+      </c>
+      <c r="G66" t="n">
+        <v>144</v>
+      </c>
+      <c r="H66" t="n">
+        <v>96</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19830</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>9</v>
+      </c>
+      <c r="O66" t="n">
+        <v>9</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B/O RASHMITA</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>23030467</v>
+      </c>
+      <c r="C67" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>62</v>
+      </c>
+      <c r="G67" t="n">
+        <v>142</v>
+      </c>
+      <c r="H67" t="n">
+        <v>98</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18190</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>MATERAL FEVER AND UTI 2 DAYS PRIOR TO DELIVERY</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>9</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B/O AYISHATHUL </t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>23032132</v>
+      </c>
+      <c r="C68" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>48</v>
+      </c>
+      <c r="G68" t="n">
+        <v>144</v>
+      </c>
+      <c r="H68" t="n">
+        <v>96</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25550</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NVD MSL</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>9</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B/O YASMEEN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>23032510</v>
+      </c>
+      <c r="C69" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>48</v>
+      </c>
+      <c r="G69" t="n">
+        <v>152</v>
+      </c>
+      <c r="H69" t="n">
+        <v>96</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15740</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>LSCS, NON PROGRESSION OF LABOUR</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>9</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B/O SHAMIDA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>23034107</v>
+      </c>
+      <c r="C70" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>74</v>
+      </c>
+      <c r="G70" t="n">
+        <v>164</v>
+      </c>
+      <c r="H70" t="n">
+        <v>98</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14640</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>PROM</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EMERGENCY LSCS MSL AND FOETAL DISTRESS</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>7</v>
+      </c>
+      <c r="O70" t="n">
+        <v>9</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B/O ZUBAIDA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>23036353</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>48</v>
+      </c>
+      <c r="G71" t="n">
+        <v>152</v>
+      </c>
+      <c r="H71" t="n">
+        <v>96</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16940</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>9</v>
+      </c>
+      <c r="O71" t="n">
+        <v>9</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B/O SHAHIDA D </t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>23039908</v>
+      </c>
+      <c r="C72" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>48</v>
+      </c>
+      <c r="G72" t="n">
+        <v>140</v>
+      </c>
+      <c r="H72" t="n">
+        <v>98</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7880</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>9</v>
+      </c>
+      <c r="O72" t="n">
+        <v>9</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B/O RAKSHITA</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>23044133</v>
+      </c>
+      <c r="C73" t="n">
+        <v>36</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>48</v>
+      </c>
+      <c r="G73" t="n">
+        <v>152</v>
+      </c>
+      <c r="H73" t="n">
+        <v>96</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21550</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>9</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B/O SHASHIKALA</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>23045914</v>
+      </c>
+      <c r="C74" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>48</v>
+      </c>
+      <c r="G74" t="n">
+        <v>152</v>
+      </c>
+      <c r="H74" t="n">
+        <v>96</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10650</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K74" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>LSCS, NON PROGRESSION OF LABOUR</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>9</v>
+      </c>
+      <c r="O74" t="n">
+        <v>9</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B/O KAMSINA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23048492</v>
+      </c>
+      <c r="C75" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>48</v>
+      </c>
+      <c r="G75" t="n">
+        <v>152</v>
+      </c>
+      <c r="H75" t="n">
+        <v>96</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10430</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K75" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NVD MSL</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B/O MARIYATH</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>23050576</v>
+      </c>
+      <c r="C76" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>48</v>
+      </c>
+      <c r="G76" t="n">
+        <v>140</v>
+      </c>
+      <c r="H76" t="n">
+        <v>94</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17450</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>9</v>
+      </c>
+      <c r="O76" t="n">
+        <v>9</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B/O AYISHATUL ARAFA</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>23050797</v>
+      </c>
+      <c r="C77" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>44</v>
+      </c>
+      <c r="G77" t="n">
+        <v>144</v>
+      </c>
+      <c r="H77" t="n">
+        <v>95</v>
+      </c>
+      <c r="I77" t="n">
+        <v>18450</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>9</v>
+      </c>
+      <c r="O77" t="n">
+        <v>9</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B/O SURAIYA</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>23053311</v>
+      </c>
+      <c r="C78" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>48</v>
+      </c>
+      <c r="G78" t="n">
+        <v>130</v>
+      </c>
+      <c r="H78" t="n">
+        <v>96</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12100</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>9</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B/O ASHWINI</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>23064257</v>
+      </c>
+      <c r="C79" t="n">
+        <v>38</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>40</v>
+      </c>
+      <c r="G79" t="n">
+        <v>140</v>
+      </c>
+      <c r="H79" t="n">
+        <v>97</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12470</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UTI </t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>9</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B/O DILSHAD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>23067076</v>
+      </c>
+      <c r="C80" t="n">
+        <v>40</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>48</v>
+      </c>
+      <c r="G80" t="n">
+        <v>152</v>
+      </c>
+      <c r="H80" t="n">
+        <v>96</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20980</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>PROM</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NVD MSL</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>8</v>
+      </c>
+      <c r="O80" t="n">
+        <v>9</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B/O SHAMNAZ K</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>23085022</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>48</v>
+      </c>
+      <c r="G81" t="n">
+        <v>152</v>
+      </c>
+      <c r="H81" t="n">
+        <v>96</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18300</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CRONIC HYPERTENSION</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>LSCS</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>9</v>
+      </c>
+      <c r="O81" t="n">
+        <v>9</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B/O HARSHINI K </t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>23084056</v>
+      </c>
+      <c r="C82" t="n">
+        <v>37</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>48</v>
+      </c>
+      <c r="G82" t="n">
+        <v>152</v>
+      </c>
+      <c r="H82" t="n">
+        <v>96</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31670</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>MATERAL FEVER AND UTI 2 DAYS PRIOR TO DELIVERY</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>9</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>NORMAL WARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>22042481</v>
+      </c>
+      <c r="C83" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>40</v>
+      </c>
+      <c r="G83" t="n">
+        <v>140</v>
+      </c>
+      <c r="H83" t="n">
+        <v>98</v>
+      </c>
+      <c r="I83" t="n">
+        <v>13600</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NVD</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>7</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sepsis data.xlsx
+++ b/sepsis data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\OneDrive\Desktop\Github\ProjectSepsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95F2892-B6AE-49B7-8EB9-FD2A58B117F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02D97F-3B0B-4A90-8C33-3F49B8E0E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>BABY OF RAHUL</t>
   </si>
   <si>
-    <t>NORMAL WARD NOW, POTENTIAL ICU LATER</t>
-  </si>
-  <si>
     <t>BABY OF ANANYA</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>B/O AYISHATH AREEFA</t>
   </si>
   <si>
-    <t>ICU</t>
-  </si>
-  <si>
     <t>B/O AYISHATHUL</t>
   </si>
   <si>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>ram</t>
+  </si>
+  <si>
+    <t>ICU-WARD</t>
+  </si>
+  <si>
+    <t>NORMAL WARD NOW, POTENTIAL ICU-WARD LATER</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1003,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1403,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1653,12 +1653,12 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>23141602</v>
@@ -1703,12 +1703,12 @@
         <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>23141603</v>
@@ -1753,12 +1753,12 @@
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>23141604</v>
@@ -1803,12 +1803,12 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>23141612</v>
@@ -1853,12 +1853,12 @@
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>23141613</v>
@@ -1903,12 +1903,12 @@
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>23141614</v>
@@ -1953,12 +1953,12 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>23141615</v>
@@ -2003,12 +2003,12 @@
         <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>23141616</v>
@@ -2053,12 +2053,12 @@
         <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>23141617</v>
@@ -2103,12 +2103,12 @@
         <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>23141618</v>
@@ -2153,12 +2153,12 @@
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>23141619</v>
@@ -2191,7 +2191,7 @@
         <v>1.35</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -2203,12 +2203,12 @@
         <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>23141620</v>
@@ -2241,7 +2241,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
         <v>27</v>
@@ -2253,12 +2253,12 @@
         <v>9</v>
       </c>
       <c r="P30" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>23141621</v>
@@ -2303,12 +2303,12 @@
         <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>23141622</v>
@@ -2341,7 +2341,7 @@
         <v>1.02</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
@@ -2353,12 +2353,12 @@
         <v>9</v>
       </c>
       <c r="P32" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>23141623</v>
@@ -2403,12 +2403,12 @@
         <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>23141624</v>
@@ -2453,12 +2453,12 @@
         <v>5</v>
       </c>
       <c r="P34" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>23141625</v>
@@ -2491,7 +2491,7 @@
         <v>1.45</v>
       </c>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
@@ -2503,12 +2503,12 @@
         <v>9</v>
       </c>
       <c r="P35" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>23141626</v>
@@ -2541,7 +2541,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
         <v>38</v>
@@ -2553,12 +2553,12 @@
         <v>8</v>
       </c>
       <c r="P36" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>23141627</v>
@@ -2591,7 +2591,7 @@
         <v>1.78</v>
       </c>
       <c r="L37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M37" t="s">
         <v>40</v>
@@ -2603,12 +2603,12 @@
         <v>9</v>
       </c>
       <c r="P37" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>23141628</v>
@@ -2641,7 +2641,7 @@
         <v>0.82</v>
       </c>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s">
         <v>24</v>
@@ -2653,12 +2653,12 @@
         <v>9</v>
       </c>
       <c r="P38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>23141629</v>
@@ -2703,12 +2703,12 @@
         <v>8</v>
       </c>
       <c r="P39" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>23141630</v>
@@ -2753,12 +2753,12 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>23141631</v>
@@ -2791,7 +2791,7 @@
         <v>1.25</v>
       </c>
       <c r="L41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M41" t="s">
         <v>50</v>
@@ -2803,12 +2803,12 @@
         <v>9</v>
       </c>
       <c r="P41" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>23141632</v>
@@ -2853,12 +2853,12 @@
         <v>9</v>
       </c>
       <c r="P42" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>23141633</v>
@@ -2891,7 +2891,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M43" t="s">
         <v>27</v>
@@ -2903,12 +2903,12 @@
         <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>23141605</v>
@@ -2953,12 +2953,12 @@
         <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>23141606</v>
@@ -3003,12 +3003,12 @@
         <v>7</v>
       </c>
       <c r="P45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>23141607</v>
@@ -3053,12 +3053,12 @@
         <v>7</v>
       </c>
       <c r="P46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>23141608</v>
@@ -3103,12 +3103,12 @@
         <v>7</v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>23141609</v>
@@ -3153,12 +3153,12 @@
         <v>8</v>
       </c>
       <c r="P48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>23141610</v>
@@ -3203,12 +3203,12 @@
         <v>7</v>
       </c>
       <c r="P49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>23141611</v>
@@ -3253,12 +3253,12 @@
         <v>7</v>
       </c>
       <c r="P50" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>23141610</v>
@@ -3303,12 +3303,12 @@
         <v>6</v>
       </c>
       <c r="P51" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>456546</v>
@@ -3353,12 +3353,12 @@
         <v>9</v>
       </c>
       <c r="P52" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>22041113</v>
@@ -3403,12 +3403,12 @@
         <v>9</v>
       </c>
       <c r="P53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>22042481</v>
@@ -3453,12 +3453,12 @@
         <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>22043192</v>
@@ -3503,12 +3503,12 @@
         <v>9</v>
       </c>
       <c r="P55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>22043311</v>
@@ -3553,12 +3553,12 @@
         <v>9</v>
       </c>
       <c r="P56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>22043771</v>
@@ -3603,12 +3603,12 @@
         <v>9</v>
       </c>
       <c r="P57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>22045418</v>
@@ -3653,12 +3653,12 @@
         <v>9</v>
       </c>
       <c r="P58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>22046043</v>
@@ -3703,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="P59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>22047493</v>
@@ -3753,12 +3753,12 @@
         <v>9</v>
       </c>
       <c r="P60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>23023058</v>
@@ -3803,12 +3803,12 @@
         <v>9</v>
       </c>
       <c r="P61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>23024726</v>
@@ -3853,12 +3853,12 @@
         <v>9</v>
       </c>
       <c r="P62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>23024773</v>
@@ -3903,12 +3903,12 @@
         <v>9</v>
       </c>
       <c r="P63" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>23025545</v>
@@ -3953,12 +3953,12 @@
         <v>9</v>
       </c>
       <c r="P64" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>23027277</v>
@@ -3991,7 +3991,7 @@
         <v>69.349999999999994</v>
       </c>
       <c r="L65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M65" t="s">
         <v>29</v>
@@ -4003,12 +4003,12 @@
         <v>9</v>
       </c>
       <c r="P65" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>23028258</v>
@@ -4053,12 +4053,12 @@
         <v>9</v>
       </c>
       <c r="P66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>23030467</v>
@@ -4103,12 +4103,12 @@
         <v>9</v>
       </c>
       <c r="P67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>23032132</v>
@@ -4153,12 +4153,12 @@
         <v>9</v>
       </c>
       <c r="P68" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>23032510</v>
@@ -4203,12 +4203,12 @@
         <v>9</v>
       </c>
       <c r="P69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>23034107</v>
@@ -4253,12 +4253,12 @@
         <v>9</v>
       </c>
       <c r="P70" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>23036353</v>
@@ -4303,12 +4303,12 @@
         <v>9</v>
       </c>
       <c r="P71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>23039908</v>
@@ -4353,12 +4353,12 @@
         <v>9</v>
       </c>
       <c r="P72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73">
         <v>23044133</v>
@@ -4403,12 +4403,12 @@
         <v>9</v>
       </c>
       <c r="P73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>23045914</v>
@@ -4453,12 +4453,12 @@
         <v>9</v>
       </c>
       <c r="P74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>23048492</v>
@@ -4503,12 +4503,12 @@
         <v>9</v>
       </c>
       <c r="P75" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76">
         <v>23050576</v>
@@ -4553,12 +4553,12 @@
         <v>9</v>
       </c>
       <c r="P76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77">
         <v>23050797</v>
@@ -4603,12 +4603,12 @@
         <v>9</v>
       </c>
       <c r="P77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B78">
         <v>23053311</v>
@@ -4653,12 +4653,12 @@
         <v>9</v>
       </c>
       <c r="P78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>23064257</v>
@@ -4703,12 +4703,12 @@
         <v>9</v>
       </c>
       <c r="P79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>23067076</v>
@@ -4753,12 +4753,12 @@
         <v>9</v>
       </c>
       <c r="P80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>23085022</v>
@@ -4803,12 +4803,12 @@
         <v>9</v>
       </c>
       <c r="P81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>23084056</v>
@@ -4853,12 +4853,12 @@
         <v>9</v>
       </c>
       <c r="P82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B83">
         <v>22042481</v>
@@ -4903,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="P83" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/sepsis data.xlsx
+++ b/sepsis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\OneDrive\Desktop\Github\ProjectSepsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02D97F-3B0B-4A90-8C33-3F49B8E0E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D39566-9BD0-4C95-AC03-8EEEA30B8EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
     <t>ram</t>
   </si>
   <si>
-    <t>ICU-WARD</t>
-  </si>
-  <si>
     <t>NORMAL WARD NOW, POTENTIAL ICU-WARD LATER</t>
+  </si>
+  <si>
+    <t>ICU</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1003,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1403,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -1803,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -1953,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -2103,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -2203,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -2253,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="P30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="P32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -2403,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="P34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -2503,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -2553,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="P36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -2603,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="P37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -2703,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="P39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -2803,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="P41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="P42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -2903,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="P50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -3303,7 +3303,7 @@
         <v>6</v>
       </c>
       <c r="P51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="P52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -3453,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="P63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="P64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="P65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -4153,7 +4153,7 @@
         <v>9</v>
       </c>
       <c r="P68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -4253,7 +4253,7 @@
         <v>9</v>
       </c>
       <c r="P70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -4503,7 +4503,7 @@
         <v>9</v>
       </c>
       <c r="P75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -4903,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="P83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
